--- a/data/hero_mage.xlsx
+++ b/data/hero_mage.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FARHAN\Downloads\MobileLegend-BruteForce\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bisma\OneDrive\Documents\KULIAH\semester3\ANALGO\MobileLegend-BruteForce\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DEC163-73EB-4237-90FC-D8B4AC62DFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD623345-A05C-4AFC-99EF-8BC59EDFFFB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -538,7 +538,7 @@
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
